--- a/ParserCodes/clr_analysis.xlsx
+++ b/ParserCodes/clr_analysis.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FIRST Sets" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="States" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ACTION Table" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GOTO Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Transitions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FIRST Sets" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="States" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACTION Table" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOTO Table" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transitions" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
+          <t>arg → NUMBER</t>
         </is>
       </c>
     </row>
@@ -649,12 +649,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>args</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>args → arg ("," arg)*</t>
+          <t>arg → STRING</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>args</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>call_stmt → ID "(" args? ")" ";"</t>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
         </is>
       </c>
     </row>
@@ -694,12 +694,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>program → stmt_list</t>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>stmt → for_stmt</t>
+          <t>program → stmt_list</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stmt → call_stmt</t>
+          <t>stmt → for_stmt</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>stmt_list → stmt</t>
+          <t>stmt → call_stmt</t>
         </is>
       </c>
     </row>
@@ -758,6 +758,21 @@
         </is>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>stmt_list → stmt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stmt_list</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>stmt_list → stmt stmt_list</t>
         </is>
@@ -812,7 +827,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -829,7 +844,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1002,25 +1017,13 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="45" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>State 1</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>[programBar → program ·, $]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="45" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>State 2</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>[call_stmt → ID · "(" args? ")" ";", "for"]
 [call_stmt → ID · "(" args? ")" ";", $]
@@ -1028,41 +1031,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>State 3</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>[stmt → call_stmt ·, "for"]
-[stmt → call_stmt ·, $]
-[stmt → call_stmt ·, ID]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>State 4</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", "for"]
-[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", $]
-[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", ID]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="45" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>State 5</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="inlineStr">
+    <row r="4" ht="45" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>State 2</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>[stmt → for_stmt ·, "for"]
 [stmt → for_stmt ·, $]
@@ -1070,25 +1045,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>State 6</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>[program → stmt_list ·, $]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="240" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>State 7</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="inlineStr">
+    <row r="5" ht="240" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>State 3</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";", "for"]
 [call_stmt → · ID "(" args? ")" ";", $]
@@ -1109,6 +1072,58 @@
         </is>
       </c>
     </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>State 4</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>[programBar → program ·, $]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>State 5</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>[program → stmt_list ·, $]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>State 6</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>[stmt → call_stmt ·, "for"]
+[stmt → call_stmt ·, $]
+[stmt → call_stmt ·, ID]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>State 7</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", "for"]
+[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", $]
+[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", ID]</t>
+        </is>
+      </c>
+    </row>
     <row r="10" ht="45" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
@@ -1123,29 +1138,29 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="45" customHeight="1">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>State 9</t>
         </is>
       </c>
       <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>[stmt_list → stmt stmt_list ·, $]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>State 10</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", "for"]
 [for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", $]
 [for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", ID]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>State 10</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>[stmt_list → stmt stmt_list ·, $]</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,7 +1309,6 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1368,11 +1382,6 @@
           <t>args?</t>
         </is>
       </c>
-      <c r="O1" s="11" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
@@ -1400,7 +1409,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="G2" s="12" t="inlineStr">
@@ -1420,7 +1429,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="K2" s="12" t="inlineStr">
@@ -1439,11 +1448,6 @@
         </is>
       </c>
       <c r="N2" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1453,9 +1457,9 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s8</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -1483,9 +1487,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>accept</t>
+      <c r="H3" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" s="12" t="inlineStr">
@@ -1514,11 +1518,6 @@
         </is>
       </c>
       <c r="N3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1528,9 +1527,9 @@
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>s8</t>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -1548,9 +1547,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>r6</t>
         </is>
       </c>
       <c r="G4" s="12" t="inlineStr">
@@ -1558,9 +1557,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H4" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>r6</t>
         </is>
       </c>
       <c r="I4" s="12" t="inlineStr">
@@ -1568,9 +1567,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>r6</t>
         </is>
       </c>
       <c r="K4" s="12" t="inlineStr">
@@ -1589,11 +1588,6 @@
         </is>
       </c>
       <c r="N4" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O4" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1625,7 +1619,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
@@ -1635,7 +1629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="I5" s="12" t="inlineStr">
@@ -1645,7 +1639,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="K5" s="12" t="inlineStr">
@@ -1664,11 +1658,6 @@
         </is>
       </c>
       <c r="N5" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O5" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1708,9 +1697,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H6" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>accept</t>
         </is>
       </c>
       <c r="I6" s="12" t="inlineStr">
@@ -1718,9 +1707,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s9</t>
+      <c r="J6" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" s="12" t="inlineStr">
@@ -1739,11 +1728,6 @@
         </is>
       </c>
       <c r="N6" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O6" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1773,29 +1757,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>r5</t>
         </is>
       </c>
-      <c r="G7" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
       <c r="I7" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>r5</t>
+      <c r="J7" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K7" s="12" t="inlineStr">
@@ -1814,11 +1798,6 @@
         </is>
       </c>
       <c r="N7" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O7" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1848,9 +1827,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="G8" s="12" t="inlineStr">
@@ -1860,7 +1839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r7</t>
         </is>
       </c>
       <c r="I8" s="12" t="inlineStr">
@@ -1868,9 +1847,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="K8" s="12" t="inlineStr">
@@ -1889,11 +1868,6 @@
         </is>
       </c>
       <c r="N8" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1923,9 +1897,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s4</t>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G9" s="12" t="inlineStr">
@@ -1933,9 +1907,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>r7</t>
+      <c r="H9" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="12" t="inlineStr">
@@ -1945,7 +1919,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="K9" s="12" t="inlineStr">
@@ -1964,11 +1938,6 @@
         </is>
       </c>
       <c r="N9" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O9" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2043,11 +2012,6 @@
           <t>s11</t>
         </is>
       </c>
-      <c r="O10" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
@@ -2068,9 +2032,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s12</t>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
@@ -2083,9 +2047,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>r9</t>
         </is>
       </c>
       <c r="I11" s="12" t="inlineStr">
@@ -2114,11 +2078,6 @@
         </is>
       </c>
       <c r="N11" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O11" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2143,9 +2102,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s12</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
@@ -2158,9 +2117,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>r8</t>
+      <c r="H12" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="12" t="inlineStr">
@@ -2189,11 +2148,6 @@
         </is>
       </c>
       <c r="N12" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O12" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2268,11 +2222,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O13" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
@@ -2343,11 +2292,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O14" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
@@ -2418,11 +2362,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O15" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
@@ -2493,11 +2432,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O16" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
@@ -2525,7 +2459,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="G17" s="12" t="inlineStr">
@@ -2535,7 +2469,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="I17" s="12" t="inlineStr">
@@ -2545,7 +2479,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="K17" s="12" t="inlineStr">
@@ -2564,11 +2498,6 @@
         </is>
       </c>
       <c r="N17" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2643,11 +2572,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O18" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
@@ -2718,11 +2642,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O19" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
@@ -2750,7 +2669,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="G20" s="12" t="inlineStr">
@@ -2760,7 +2679,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="I20" s="12" t="inlineStr">
@@ -2770,7 +2689,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="K20" s="12" t="inlineStr">
@@ -2789,11 +2708,6 @@
         </is>
       </c>
       <c r="N20" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O20" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2891,24 +2805,24 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3015,15 +2929,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
@@ -3035,15 +2945,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3195,11 +3101,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
@@ -3211,11 +3121,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10</v>
+      <c r="H9" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -3764,7 +3678,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3777,7 +3691,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3790,7 +3704,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3803,7 +3717,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3816,7 +3730,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3829,7 +3743,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3842,12 +3756,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3860,80 +3774,80 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>"for"</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"for"</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -3942,7 +3856,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3964,7 +3878,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>

--- a/ParserCodes/clr_analysis.xlsx
+++ b/ParserCodes/clr_analysis.xlsx
@@ -1017,41 +1017,13 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1">
+    <row r="3" ht="240" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>State 1</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>[call_stmt → ID · "(" args? ")" ";", "for"]
-[call_stmt → ID · "(" args? ")" ";", $]
-[call_stmt → ID · "(" args? ")" ";", ID]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="45" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>State 2</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>[stmt → for_stmt ·, "for"]
-[stmt → for_stmt ·, $]
-[stmt → for_stmt ·, ID]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="240" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>State 3</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";", "for"]
 [call_stmt → · ID "(" args? ")" ";", $]
@@ -1072,7 +1044,33 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="4" ht="45" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>State 2</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>[call_stmt → ID · "(" args? ")" ";", "for"]
+[call_stmt → ID · "(" args? ")" ";", $]
+[call_stmt → ID · "(" args? ")" ";", ID]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>State 3</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>[programBar → program ·, $]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="45" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>State 4</t>
@@ -1080,11 +1078,13 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>[programBar → program ·, $]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+          <t>[stmt → for_stmt ·, "for"]
+[stmt → for_stmt ·, $]
+[stmt → for_stmt ·, ID]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>State 5</t>
@@ -1092,17 +1092,31 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
+          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", "for"]
+[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", $]
+[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", ID]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>State 6</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
           <t>[program → stmt_list ·, $]</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="45" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>State 6</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="inlineStr">
+    <row r="9" ht="45" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>State 7</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>[stmt → call_stmt ·, "for"]
 [stmt → call_stmt ·, $]
@@ -1110,43 +1124,29 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="45" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>State 7</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", "for"]
-[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", $]
-[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", ID]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="45" customHeight="1">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>State 8</t>
         </is>
       </c>
       <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>[stmt_list → stmt stmt_list ·, $]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>State 9</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>[call_stmt → ID "(" · args? ")" ";", "for"]
 [call_stmt → ID "(" · args? ")" ";", $]
 [call_stmt → ID "(" · args? ")" ";", ID]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>State 9</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>[stmt_list → stmt stmt_list ·, $]</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="G2" s="12" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="K2" s="12" t="inlineStr">
@@ -1457,9 +1457,9 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>s8</t>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -1477,9 +1477,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s5</t>
         </is>
       </c>
       <c r="G3" s="12" t="inlineStr">
@@ -1487,9 +1487,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>r8</t>
         </is>
       </c>
       <c r="I3" s="12" t="inlineStr">
@@ -1497,9 +1497,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s2</t>
         </is>
       </c>
       <c r="K3" s="12" t="inlineStr">
@@ -1527,9 +1527,9 @@
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s9</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -1547,9 +1547,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>r6</t>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" s="12" t="inlineStr">
@@ -1557,9 +1557,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>r6</t>
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="12" t="inlineStr">
@@ -1567,9 +1567,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>r6</t>
+      <c r="J4" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K4" s="12" t="inlineStr">
@@ -1617,9 +1617,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s7</t>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>accept</t>
         </is>
       </c>
       <c r="I5" s="12" t="inlineStr">
@@ -1637,9 +1637,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s1</t>
+      <c r="J5" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K5" s="12" t="inlineStr">
@@ -1687,9 +1687,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>r6</t>
         </is>
       </c>
       <c r="G6" s="12" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>accept</t>
+          <t>r6</t>
         </is>
       </c>
       <c r="I6" s="12" t="inlineStr">
@@ -1707,9 +1707,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J6" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>r6</t>
         </is>
       </c>
       <c r="K6" s="12" t="inlineStr">
@@ -1767,9 +1767,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>r5</t>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="12" t="inlineStr">
@@ -1777,9 +1777,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J7" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s10</t>
         </is>
       </c>
       <c r="K7" s="12" t="inlineStr">
@@ -1827,9 +1827,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>r7</t>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" s="12" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>r7</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="I8" s="12" t="inlineStr">
@@ -1847,9 +1847,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>r7</t>
+      <c r="J8" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K8" s="12" t="inlineStr">
@@ -1897,9 +1897,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="G9" s="12" t="inlineStr">
@@ -1907,9 +1907,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="I9" s="12" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>r7</t>
         </is>
       </c>
       <c r="K9" s="12" t="inlineStr">
@@ -1977,9 +1977,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>r9</t>
         </is>
       </c>
       <c r="I10" s="12" t="inlineStr">
@@ -2007,9 +2007,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>s11</t>
+      <c r="N10" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2047,9 +2047,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>r9</t>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="12" t="inlineStr">
@@ -2077,9 +2077,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N11" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>s11</t>
         </is>
       </c>
     </row>
@@ -2805,24 +2805,24 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2839,15 +2839,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
@@ -2859,15 +2855,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2929,11 +2921,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
@@ -2945,11 +2941,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -3765,85 +3765,85 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"("</t>
+          <t>"for"</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"for"</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>"("</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3852,7 +3852,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
